--- a/comapring_results/avg_travel_times_per_algorithm_fourth_dataset.xlsx
+++ b/comapring_results/avg_travel_times_per_algorithm_fourth_dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/comapring_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{3E789FED-CCBA-47DB-8EB6-74599500C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B198846-C882-46E6-81D0-999E3C85C787}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{3E789FED-CCBA-47DB-8EB6-74599500C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D2B21B-0B7B-49B1-A49E-AED2070A15C0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
@@ -72,16 +72,16 @@
     <t>travel time no algo with HB</t>
   </si>
   <si>
-    <t>travel time algo3 without HB</t>
-  </si>
-  <si>
-    <t>travel time algo3 with HB</t>
-  </si>
-  <si>
     <t>travel time algo2d without HB</t>
   </si>
   <si>
     <t>travel time algo2d with HB</t>
+  </si>
+  <si>
+    <t>travel time m-TSP without HB</t>
+  </si>
+  <si>
+    <t>travel time m-TSP with HB</t>
   </si>
 </sst>
 </file>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C27F6-58EB-4411-8555-8CBD8FB636AA}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,16 +480,16 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
@@ -527,10 +527,16 @@
         <v>7402</v>
       </c>
       <c r="J2">
-        <v>2644</v>
+        <v>3342</v>
       </c>
       <c r="K2">
-        <v>6576</v>
+        <v>7224</v>
+      </c>
+      <c r="L2">
+        <v>4735</v>
+      </c>
+      <c r="M2">
+        <v>8494</v>
       </c>
       <c r="N2">
         <v>3964</v>
@@ -568,10 +574,16 @@
         <v>4.7026683609999997</v>
       </c>
       <c r="J3">
-        <v>1.6797966959999999</v>
+        <v>2.1138519919999998</v>
       </c>
       <c r="K3">
-        <v>4.1778907240000001</v>
+        <v>4.5692599620000003</v>
+      </c>
+      <c r="L3">
+        <v>3.0028592120000002</v>
+      </c>
+      <c r="M3">
+        <v>5.3964421859999998</v>
       </c>
       <c r="N3">
         <v>2.5184243959999999</v>

--- a/comapring_results/avg_travel_times_per_algorithm_fourth_dataset.xlsx
+++ b/comapring_results/avg_travel_times_per_algorithm_fourth_dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/304b24243408c27c/Desktop/projects/Salesforce/SalesForceProject/comapring_results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfadlon/Documents/daniel_1/IDC/project_with_industry/Salesforce/SalesForceProject/comapring_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{3E789FED-CCBA-47DB-8EB6-74599500C1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D2B21B-0B7B-49B1-A49E-AED2070A15C0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E6D437-93E2-2846-A38E-9A7FE280B660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
+    <workbookView xWindow="5400" yWindow="8420" windowWidth="23260" windowHeight="12580" xr2:uid="{E7C03F1F-8F95-406A-9C6A-7965F216271C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,26 +435,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42C27F6-58EB-4411-8555-8CBD8FB636AA}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
-    <col min="5" max="6" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" customWidth="1"/>
+    <col min="5" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="35.88671875" customWidth="1"/>
-    <col min="12" max="12" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="35.83203125" customWidth="1"/>
+    <col min="12" max="12" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>9</v>
       </c>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -533,19 +533,19 @@
         <v>7224</v>
       </c>
       <c r="L2">
-        <v>4735</v>
+        <v>3964</v>
       </c>
       <c r="M2">
         <v>8494</v>
       </c>
       <c r="N2">
-        <v>3964</v>
+        <v>4935</v>
       </c>
       <c r="O2">
         <v>7804</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
